--- a/data/municipal_parking/data.xlsx
+++ b/data/municipal_parking/data.xlsx
@@ -603,7 +603,7 @@
         <v>134.05255</v>
       </c>
       <c r="D6" t="str">
-        <v>高松市立瓦町駅地下</v>
+        <v>高松市立瓦町駅地下駐車場</v>
       </c>
       <c r="E6" t="str">
         <v>高松市常磐町一丁目3-1</v>
